--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.21</t>
+          <t>15.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.50</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004856</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004857</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指建筑材料指数C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -706,26 +786,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>004856</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>广发中证全指建筑材料指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.46</t>
+          <t>10.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>004857</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>广发中证全指建筑材料指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005418</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>申万菱信量化驱动混合</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.18</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.82</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.8</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2801,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.18</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7999</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2752,14 +2839,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.82</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2768,13 +2877,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.09</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3417,14 +3504,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.18</v>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -3433,14 +3542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.82</v>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3449,13 +3580,335 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015153</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2287,7 +2588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2723,7 +3024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +3498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3709,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
+++ b/数据整理/stocks/A股/深证主板/000401-冀东水泥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>5.09</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -616,7 +633,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2588,7 +2945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3024,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3498,7 +3855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4008,212 +4365,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5727</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1552</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1528</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>